--- a/Running projects/Generation Store - Dolmen Mall Lahore/Running Bill No 1 - Generation DML.xlsx
+++ b/Running projects/Generation Store - Dolmen Mall Lahore/Running Bill No 1 - Generation DML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Generation Store - Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878A4B5-C13B-417F-AB60-45E02BCE4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036F5093-2794-4DF2-BBC2-9E310A7A12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -430,10 +430,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1083,7 +1084,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1330,6 +1331,33 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1339,6 +1367,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="25" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="25" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="25" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,95 +1439,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="25" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="25" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="25" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1806,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -1820,12 +1827,12 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="11"/>
@@ -1858,7 +1865,7 @@
       </c>
       <c r="D10" s="23">
         <f>'HVAC-BOQ'!K22</f>
-        <v>0</v>
+        <v>2409640</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1879,7 +1886,7 @@
       </c>
       <c r="D12" s="23">
         <f>'FF-BOQ'!K27</f>
-        <v>0</v>
+        <v>2715106.52</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -1895,26 +1902,26 @@
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27">
         <f>SUM(D9:D14)</f>
-        <v>0</v>
+        <v>5124746.5199999996</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="13">
         <f>D15*8%</f>
-        <v>0</v>
+        <v>409979.72159999999</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="13">
         <f>D15-D25</f>
-        <v>0</v>
+        <v>4714766.7983999997</v>
       </c>
     </row>
   </sheetData>
@@ -1933,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:K9"/>
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2030,74 +2037,74 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="97" customFormat="1" ht="18.75">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:11" s="83" customFormat="1" ht="18.75">
+      <c r="A6" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-    </row>
-    <row r="7" spans="1:11" s="97" customFormat="1" ht="15.75">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="1:11" s="83" customFormat="1" ht="15.75">
+      <c r="A7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107" t="s">
+      <c r="J7" s="112"/>
+      <c r="K7" s="113" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="97" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110" t="s">
+    <row r="8" spans="1:11" s="83" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="117"/>
+      <c r="K8" s="114"/>
     </row>
     <row r="9" spans="1:11" ht="102">
       <c r="A9" s="56">
@@ -2118,22 +2125,24 @@
       <c r="F9" s="60">
         <v>1000</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="118">
+        <v>173.8</v>
+      </c>
       <c r="H9" s="60">
         <f>G9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="60">
+        <v>1042800.0000000001</v>
+      </c>
+      <c r="I9" s="118">
         <f>G9</f>
-        <v>0</v>
+        <v>173.8</v>
       </c>
       <c r="J9" s="60">
         <f>I9*F9</f>
-        <v>0</v>
+        <v>173800</v>
       </c>
       <c r="K9" s="60">
         <f>J9+H9</f>
-        <v>0</v>
+        <v>1216600</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51">
@@ -2155,25 +2164,27 @@
       <c r="F10" s="65">
         <v>600</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="118">
+        <v>173.8</v>
+      </c>
       <c r="H10" s="60">
         <f>G10*E10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="60">
+        <v>382360</v>
+      </c>
+      <c r="I10" s="118">
         <f>G10</f>
-        <v>0</v>
+        <v>173.8</v>
       </c>
       <c r="J10" s="60">
         <f>I10*F10</f>
-        <v>0</v>
+        <v>104280</v>
       </c>
       <c r="K10" s="60">
         <f>J10+H10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="76.5">
+        <v>486640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="63.75">
       <c r="A11" s="61">
         <v>3</v>
       </c>
@@ -2192,22 +2203,24 @@
       <c r="F11" s="65">
         <v>5000</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="118">
+        <v>1</v>
+      </c>
       <c r="H11" s="60">
         <f>G11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="60">
+        <v>55000</v>
+      </c>
+      <c r="I11" s="118">
         <f>G11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="60">
         <f>I11*F11</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K11" s="60">
         <f>J11+H11</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2229,22 +2242,24 @@
       <c r="F12" s="65">
         <v>5000</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="118">
+        <v>1</v>
+      </c>
       <c r="H12" s="60">
         <f t="shared" ref="H12:H18" si="0">G12*E12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="60">
+        <v>55000</v>
+      </c>
+      <c r="I12" s="118">
         <f t="shared" ref="I12:I18" si="1">G12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="60">
         <f t="shared" ref="J12:J18" si="2">I12*F12</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K12" s="60">
         <f t="shared" ref="K12:K18" si="3">J12+H12</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5">
@@ -2266,22 +2281,24 @@
       <c r="F13" s="65">
         <v>1000</v>
       </c>
-      <c r="G13" s="60"/>
+      <c r="G13" s="118">
+        <v>3</v>
+      </c>
       <c r="H13" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="60">
+        <v>14400</v>
+      </c>
+      <c r="I13" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K13" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2303,22 +2320,24 @@
       <c r="F14" s="65">
         <v>1000</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="118">
+        <v>1</v>
+      </c>
       <c r="H14" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="60">
+        <v>8000</v>
+      </c>
+      <c r="I14" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5">
@@ -2340,22 +2359,24 @@
       <c r="F15" s="65">
         <v>100</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="118">
+        <v>20</v>
+      </c>
       <c r="H15" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="60">
+        <v>220000</v>
+      </c>
+      <c r="I15" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J15" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K15" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>222000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="38.25">
@@ -2377,22 +2398,24 @@
       <c r="F16" s="65">
         <v>5000</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="118">
+        <v>1.5</v>
+      </c>
       <c r="H16" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="60">
+        <v>82500</v>
+      </c>
+      <c r="I16" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="K16" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="42.75" customHeight="1">
@@ -2414,22 +2437,24 @@
       <c r="F17" s="65">
         <v>1000</v>
       </c>
-      <c r="G17" s="60"/>
+      <c r="G17" s="118">
+        <v>12.5</v>
+      </c>
       <c r="H17" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="60">
+        <v>62500</v>
+      </c>
+      <c r="I17" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J17" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="K17" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="38.25">
@@ -2451,22 +2476,24 @@
       <c r="F18" s="65">
         <v>5000</v>
       </c>
-      <c r="G18" s="60"/>
+      <c r="G18" s="118">
+        <v>1</v>
+      </c>
       <c r="H18" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="60">
+        <v>48000</v>
+      </c>
+      <c r="I18" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K18" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="66.75" customHeight="1">
@@ -2488,22 +2515,24 @@
       <c r="F19" s="65">
         <v>20000</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="118">
+        <v>1</v>
+      </c>
       <c r="H19" s="60">
         <f>G19*E19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="60">
+        <v>20000</v>
+      </c>
+      <c r="I19" s="118">
         <f>G19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="60">
         <f>I19*F19</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="K19" s="60">
         <f>J19+H19</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="71.25" customHeight="1">
@@ -2525,22 +2554,24 @@
       <c r="F20" s="65">
         <v>30000</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="118">
+        <v>1</v>
+      </c>
       <c r="H20" s="60">
         <f>G20*E20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="60">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="118">
         <f>G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="60">
         <f>I20*F20</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K20" s="60">
         <f>J20+H20</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="75" customHeight="1" thickBot="1">
@@ -2562,22 +2593,24 @@
       <c r="F21" s="71">
         <v>20000</v>
       </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="118">
+        <v>1</v>
+      </c>
       <c r="H21" s="60">
         <f>G21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="60">
+        <v>20000</v>
+      </c>
+      <c r="I21" s="118">
         <f>G21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="60">
         <f>I21*F21</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="K21" s="60">
         <f>J21+H21</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
@@ -2589,38 +2622,39 @@
       <c r="D22" s="75"/>
       <c r="E22" s="76"/>
       <c r="F22" s="80"/>
-      <c r="G22" s="88"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="79">
         <f>SUM(H9:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="88"/>
+        <v>2020560</v>
+      </c>
+      <c r="I22" s="82"/>
       <c r="J22" s="79">
         <f>SUM(J9:J21)</f>
-        <v>0</v>
+        <v>389080</v>
       </c>
       <c r="K22" s="79">
         <f>SUM(K9:K21)</f>
-        <v>0</v>
+        <v>2409640</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A23:K23"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:F7"/>
@@ -2628,7 +2662,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A23:K23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.49" bottom="0.56999999999999995" header="0.3" footer="0.3"/>
@@ -2646,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2656,7 +2689,11 @@
     <col min="2" max="2" width="71.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" style="4" customWidth="1"/>
-    <col min="5" max="10" width="10" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
@@ -2690,76 +2727,76 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="97" customFormat="1" ht="18.75">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:11" s="83" customFormat="1" ht="18.75">
+      <c r="A6" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-    </row>
-    <row r="7" spans="1:11" s="97" customFormat="1" ht="15.75">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="1:11" s="83" customFormat="1" ht="15.75">
+      <c r="A7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107" t="s">
+      <c r="J7" s="112"/>
+      <c r="K7" s="113" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="97" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110" t="s">
+    <row r="8" spans="1:11" s="83" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="117"/>
-    </row>
-    <row r="9" spans="1:11" ht="45">
+      <c r="K8" s="114"/>
+    </row>
+    <row r="9" spans="1:11" ht="50.25" customHeight="1">
       <c r="A9" s="36"/>
       <c r="B9" s="33" t="s">
         <v>69</v>
@@ -2810,22 +2847,24 @@
       <c r="F11" s="29">
         <v>1000</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="119">
+        <v>166.5</v>
+      </c>
       <c r="H11" s="60">
-        <f>G11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="60">
-        <f>G11</f>
-        <v>0</v>
+        <f t="shared" ref="H11:H26" si="0">G11*E11</f>
+        <v>474525</v>
+      </c>
+      <c r="I11" s="119">
+        <f t="shared" ref="I11:I26" si="1">G11</f>
+        <v>166.5</v>
       </c>
       <c r="J11" s="60">
-        <f>I11*F11</f>
-        <v>0</v>
+        <f t="shared" ref="J11:J26" si="2">I11*F11</f>
+        <v>166500</v>
       </c>
       <c r="K11" s="60">
-        <f>J11+H11</f>
-        <v>0</v>
+        <f t="shared" ref="K11:K26" si="3">J11+H11</f>
+        <v>641025</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.95" customHeight="1">
@@ -2847,22 +2886,24 @@
       <c r="F12" s="29">
         <v>1200</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="119">
+        <v>36.448999999999998</v>
+      </c>
       <c r="H12" s="60">
-        <f>G12*E12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="60">
-        <f>G12</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>129758.43999999999</v>
+      </c>
+      <c r="I12" s="119">
+        <f t="shared" si="1"/>
+        <v>36.448999999999998</v>
       </c>
       <c r="J12" s="60">
-        <f>I12*F12</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>43738.799999999996</v>
       </c>
       <c r="K12" s="60">
-        <f>J12+H12</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>173497.24</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.95" customHeight="1">
@@ -2884,22 +2925,24 @@
       <c r="F13" s="29">
         <v>1300</v>
       </c>
-      <c r="G13" s="60"/>
+      <c r="G13" s="119">
+        <v>3.67</v>
+      </c>
       <c r="H13" s="60">
-        <f>G13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="60">
-        <f>G13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15597.5</v>
+      </c>
+      <c r="I13" s="119">
+        <f t="shared" si="1"/>
+        <v>3.67</v>
       </c>
       <c r="J13" s="60">
-        <f>I13*F13</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4771</v>
       </c>
       <c r="K13" s="60">
-        <f>J13+H13</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>20368.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.95" customHeight="1">
@@ -2921,22 +2964,24 @@
       <c r="F14" s="29">
         <v>1400</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="119">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="H14" s="60">
-        <f>G14*E14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="60">
-        <f>G14</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50762.8</v>
+      </c>
+      <c r="I14" s="119">
+        <f t="shared" si="1"/>
+        <v>9.1300000000000008</v>
       </c>
       <c r="J14" s="60">
-        <f>I14*F14</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12782.000000000002</v>
       </c>
       <c r="K14" s="60">
-        <f>J14+H14</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>63544.800000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.95" customHeight="1">
@@ -2958,22 +3003,24 @@
       <c r="F15" s="29">
         <v>1500</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="119">
+        <v>5.85</v>
+      </c>
       <c r="H15" s="60">
-        <f>G15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="60">
-        <f>G15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>55282.5</v>
+      </c>
+      <c r="I15" s="119">
+        <f t="shared" si="1"/>
+        <v>5.85</v>
       </c>
       <c r="J15" s="60">
-        <f>I15*F15</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8775</v>
       </c>
       <c r="K15" s="60">
-        <f>J15+H15</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>64057.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.95" customHeight="1">
@@ -2995,22 +3042,24 @@
       <c r="F16" s="29">
         <v>1700</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="119">
+        <v>15.68</v>
+      </c>
       <c r="H16" s="60">
-        <f>G16*E16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="60">
-        <f>G16</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>175616</v>
+      </c>
+      <c r="I16" s="119">
+        <f t="shared" si="1"/>
+        <v>15.68</v>
       </c>
       <c r="J16" s="60">
-        <f>I16*F16</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>26656</v>
       </c>
       <c r="K16" s="60">
-        <f>J16+H16</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>202272</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.95" customHeight="1">
@@ -3032,22 +3081,24 @@
       <c r="F17" s="29">
         <v>2000</v>
       </c>
-      <c r="G17" s="60"/>
+      <c r="G17" s="119">
+        <v>18.34</v>
+      </c>
       <c r="H17" s="60">
-        <f>G17*E17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="60">
-        <f>G17</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>297511.48</v>
+      </c>
+      <c r="I17" s="119">
+        <f t="shared" si="1"/>
+        <v>18.34</v>
       </c>
       <c r="J17" s="60">
-        <f>I17*F17</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>36680</v>
       </c>
       <c r="K17" s="60">
-        <f>J17+H17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>334191.48</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="24" customHeight="1">
@@ -3069,22 +3120,24 @@
       <c r="F18" s="29">
         <v>750</v>
       </c>
-      <c r="G18" s="60"/>
+      <c r="G18" s="119">
+        <v>51</v>
+      </c>
       <c r="H18" s="60">
-        <f>G18*E18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="60">
-        <f>G18</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>229500</v>
+      </c>
+      <c r="I18" s="119">
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="J18" s="60">
-        <f>I18*F18</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>38250</v>
       </c>
       <c r="K18" s="60">
-        <f>J18+H18</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>267750</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.5">
@@ -3106,22 +3159,24 @@
       <c r="F19" s="29">
         <v>800</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="119">
+        <v>47</v>
+      </c>
       <c r="H19" s="60">
-        <f>G19*E19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="60">
-        <f>G19</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>418300</v>
+      </c>
+      <c r="I19" s="119">
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="J19" s="60">
-        <f>I19*F19</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>37600</v>
       </c>
       <c r="K19" s="60">
-        <f>J19+H19</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>455900</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1">
@@ -3143,22 +3198,24 @@
       <c r="F20" s="29">
         <v>5000</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="119">
+        <v>2</v>
+      </c>
       <c r="H20" s="60">
-        <f>G20*E20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="60">
-        <f>G20</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>254000</v>
+      </c>
+      <c r="I20" s="119">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J20" s="60">
-        <f>I20*F20</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
       <c r="K20" s="60">
-        <f>J20+H20</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>264000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5">
@@ -3180,22 +3237,24 @@
       <c r="F21" s="29">
         <v>1000</v>
       </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="119">
+        <v>1</v>
+      </c>
       <c r="H21" s="60">
-        <f>G21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="60">
-        <f>G21</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+      <c r="I21" s="119">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J21" s="60">
-        <f>I21*F21</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="K21" s="60">
-        <f>J21+H21</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -3217,22 +3276,24 @@
       <c r="F22" s="29">
         <v>1000</v>
       </c>
-      <c r="G22" s="60"/>
+      <c r="G22" s="119">
+        <v>1</v>
+      </c>
       <c r="H22" s="60">
-        <f>G22*E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
-        <f>G22</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+      <c r="I22" s="119">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J22" s="60">
-        <f>I22*F22</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="K22" s="60">
-        <f>J22+H22</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18500</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5">
@@ -3254,22 +3315,24 @@
       <c r="F23" s="29">
         <v>15000</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="119">
+        <v>1</v>
+      </c>
       <c r="H23" s="60">
-        <f>G23*E23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="60">
-        <f>G23</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="I23" s="119">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J23" s="60">
-        <f>I23*F23</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
       <c r="K23" s="60">
-        <f>J23+H23</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3291,22 +3354,24 @@
       <c r="F24" s="29">
         <v>40000</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="119">
+        <v>1</v>
+      </c>
       <c r="H24" s="60">
-        <f>G24*E24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="60">
-        <f>G24</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="I24" s="119">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J24" s="60">
-        <f>I24*F24</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="K24" s="60">
-        <f>J24+H24</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -3328,22 +3393,24 @@
       <c r="F25" s="29">
         <v>30000</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="119">
+        <v>1</v>
+      </c>
       <c r="H25" s="60">
-        <f>G25*E25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="60">
-        <f>G25</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="I25" s="119">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J25" s="60">
-        <f>I25*F25</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30000</v>
       </c>
       <c r="K25" s="60">
-        <f>J25+H25</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>45000</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="23.25" thickBot="1">
@@ -3363,22 +3430,24 @@
       <c r="F26" s="29">
         <v>30000</v>
       </c>
-      <c r="G26" s="60"/>
+      <c r="G26" s="119">
+        <v>1</v>
+      </c>
       <c r="H26" s="60">
-        <f>G26*E26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="60">
-        <f>G26</f>
-        <v>0</v>
+      <c r="I26" s="119">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J26" s="60">
-        <f>I26*F26</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30000</v>
       </c>
       <c r="K26" s="60">
-        <f>J26+H26</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3393,16 +3462,16 @@
       <c r="G27" s="81"/>
       <c r="H27" s="81">
         <f>SUM(H10:H26)</f>
-        <v>0</v>
+        <v>2212353.7199999997</v>
       </c>
       <c r="I27" s="81"/>
       <c r="J27" s="81">
         <f>SUM(J10:J26)</f>
-        <v>0</v>
+        <v>502752.8</v>
       </c>
       <c r="K27" s="81">
         <f>SUM(K10:K26)</f>
-        <v>0</v>
+        <v>2715106.52</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3411,34 +3480,34 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
     </row>
     <row r="31" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Running projects/Generation Store - Dolmen Mall Lahore/Running Bill No 1 - Generation DML.xlsx
+++ b/Running projects/Generation Store - Dolmen Mall Lahore/Running Bill No 1 - Generation DML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Generation Store - Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036F5093-2794-4DF2-BBC2-9E310A7A12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027ADE31-AC6E-4F2F-A959-5A0AC22E8D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'FF-BOQ'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'HVAC-BOQ'!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1103,15 +1103,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,24 +1160,6 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1196,24 +1169,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1358,6 +1313,54 @@
     <xf numFmtId="3" fontId="27" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,6 +1370,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,20 +1439,11 @@
     <xf numFmtId="40" fontId="27" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1811,117 +1811,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:D28"/>
+  <dimension ref="A6:D15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="10"/>
-    <col min="2" max="2" width="46.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="12"/>
-    <col min="4" max="4" width="19.83203125" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="10"/>
+    <col min="1" max="1" width="9.33203125" style="7"/>
+    <col min="2" max="2" width="46.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="9"/>
+    <col min="4" max="4" width="19.83203125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="7"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <f>'HVAC-BOQ'!K22</f>
-        <v>2409640</v>
+        <v>2289158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <f>'FF-BOQ'!K27</f>
-        <v>2715106.52</v>
+        <v>2328551.1940000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27">
+      <c r="B15" s="93"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24">
         <f>SUM(D9:D14)</f>
-        <v>5124746.5199999996</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="13">
-        <f>D15*8%</f>
-        <v>409979.72159999999</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="13">
-        <f>D15-D25</f>
-        <v>4714766.7983999997</v>
+        <v>4617709.1940000001</v>
       </c>
     </row>
   </sheetData>
@@ -1938,719 +1926,745 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="81" style="77" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="51" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="78" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="78" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="78" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="78" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="78" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="51" customWidth="1"/>
-    <col min="12" max="16384" width="9.33203125" style="51"/>
+    <col min="1" max="1" width="7.83203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="81" style="62" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="63" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:14" ht="15">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48"/>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="46" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="53" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:14" ht="13.5" thickBot="1">
+      <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="53" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="83" customFormat="1" ht="18.75">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:14" s="68" customFormat="1" ht="18.75">
+      <c r="A6" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="106" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-    </row>
-    <row r="7" spans="1:11" s="83" customFormat="1" ht="15.75">
-      <c r="A7" s="95"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="109" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+    </row>
+    <row r="7" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113" t="s">
+      <c r="J7" s="115"/>
+      <c r="K7" s="116" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="83" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="84" t="s">
+    <row r="8" spans="1:14" s="68" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="99"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="114"/>
-    </row>
-    <row r="9" spans="1:11" ht="102">
-      <c r="A9" s="56">
-        <v>1</v>
-      </c>
-      <c r="B9" s="57" t="s">
+      <c r="K8" s="117"/>
+    </row>
+    <row r="9" spans="1:14" ht="102">
+      <c r="A9" s="41">
+        <v>1</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="44">
         <v>135</v>
       </c>
-      <c r="E9" s="60">
-        <v>6000</v>
-      </c>
-      <c r="F9" s="60">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="118">
+      <c r="E9" s="45">
+        <v>5700</v>
+      </c>
+      <c r="F9" s="45">
+        <v>950</v>
+      </c>
+      <c r="G9" s="76">
         <v>173.8</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="45">
         <f>G9*E9</f>
-        <v>1042800.0000000001</v>
-      </c>
-      <c r="I9" s="118">
+        <v>990660.00000000012</v>
+      </c>
+      <c r="I9" s="76">
         <f>G9</f>
         <v>173.8</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="45">
         <f>I9*F9</f>
-        <v>173800</v>
-      </c>
-      <c r="K9" s="60">
+        <v>165110</v>
+      </c>
+      <c r="K9" s="45">
         <f>J9+H9</f>
-        <v>1216600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="51">
-      <c r="A10" s="61">
+        <v>1155770</v>
+      </c>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+    </row>
+    <row r="10" spans="1:14" ht="51">
+      <c r="A10" s="46">
         <v>2</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="49">
         <v>130</v>
       </c>
-      <c r="E10" s="65">
-        <v>2200</v>
-      </c>
-      <c r="F10" s="65">
-        <v>600</v>
-      </c>
-      <c r="G10" s="118">
+      <c r="E10" s="50">
+        <v>2090</v>
+      </c>
+      <c r="F10" s="50">
+        <v>570</v>
+      </c>
+      <c r="G10" s="76">
         <v>173.8</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="45">
         <f>G10*E10</f>
-        <v>382360</v>
-      </c>
-      <c r="I10" s="118">
+        <v>363242</v>
+      </c>
+      <c r="I10" s="76">
         <f>G10</f>
         <v>173.8</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="45">
         <f>I10*F10</f>
-        <v>104280</v>
-      </c>
-      <c r="K10" s="60">
+        <v>99066</v>
+      </c>
+      <c r="K10" s="45">
         <f>J10+H10</f>
-        <v>486640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="63.75">
-      <c r="A11" s="61">
+        <v>462308</v>
+      </c>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+    </row>
+    <row r="11" spans="1:14" ht="63.75">
+      <c r="A11" s="46">
         <v>3</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="64">
-        <v>1</v>
-      </c>
-      <c r="E11" s="65">
-        <v>55000</v>
-      </c>
-      <c r="F11" s="65">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="118">
-        <v>1</v>
-      </c>
-      <c r="H11" s="60">
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+      <c r="E11" s="50">
+        <v>52250</v>
+      </c>
+      <c r="F11" s="50">
+        <v>4750</v>
+      </c>
+      <c r="G11" s="76">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45">
         <f>G11*E11</f>
-        <v>55000</v>
-      </c>
-      <c r="I11" s="118">
+        <v>52250</v>
+      </c>
+      <c r="I11" s="76">
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="45">
         <f>I11*F11</f>
-        <v>5000</v>
-      </c>
-      <c r="K11" s="60">
+        <v>4750</v>
+      </c>
+      <c r="K11" s="45">
         <f>J11+H11</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="61">
+        <v>57000</v>
+      </c>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="46">
         <v>3.1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="64">
-        <v>1</v>
-      </c>
-      <c r="E12" s="65">
-        <v>55000</v>
-      </c>
-      <c r="F12" s="65">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="118">
-        <v>1</v>
-      </c>
-      <c r="H12" s="60">
+      <c r="D12" s="49">
+        <v>1</v>
+      </c>
+      <c r="E12" s="50">
+        <v>52250</v>
+      </c>
+      <c r="F12" s="50">
+        <v>4750</v>
+      </c>
+      <c r="G12" s="76">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45">
         <f t="shared" ref="H12:H18" si="0">G12*E12</f>
-        <v>55000</v>
-      </c>
-      <c r="I12" s="118">
+        <v>52250</v>
+      </c>
+      <c r="I12" s="76">
         <f t="shared" ref="I12:I18" si="1">G12</f>
         <v>1</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="45">
         <f t="shared" ref="J12:J18" si="2">I12*F12</f>
-        <v>5000</v>
-      </c>
-      <c r="K12" s="60">
+        <v>4750</v>
+      </c>
+      <c r="K12" s="45">
         <f t="shared" ref="K12:K18" si="3">J12+H12</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="25.5">
-      <c r="A13" s="61" t="s">
+        <v>57000</v>
+      </c>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.5">
+      <c r="A13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="64">
+      <c r="C13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49">
         <v>3</v>
       </c>
-      <c r="E13" s="65">
-        <v>4800</v>
-      </c>
-      <c r="F13" s="65">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="118">
+      <c r="E13" s="50">
+        <v>4560</v>
+      </c>
+      <c r="F13" s="50">
+        <v>950</v>
+      </c>
+      <c r="G13" s="76">
         <v>3</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="45">
         <f t="shared" si="0"/>
-        <v>14400</v>
-      </c>
-      <c r="I13" s="118">
+        <v>13680</v>
+      </c>
+      <c r="I13" s="76">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="45">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="K13" s="60">
+        <v>2850</v>
+      </c>
+      <c r="K13" s="45">
         <f t="shared" si="3"/>
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="61" t="s">
+        <v>16530</v>
+      </c>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="64">
-        <v>1</v>
-      </c>
-      <c r="E14" s="65">
-        <v>8000</v>
-      </c>
-      <c r="F14" s="65">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="118">
-        <v>1</v>
-      </c>
-      <c r="H14" s="60">
+      <c r="C14" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49">
+        <v>1</v>
+      </c>
+      <c r="E14" s="50">
+        <v>7600</v>
+      </c>
+      <c r="F14" s="50">
+        <v>950</v>
+      </c>
+      <c r="G14" s="76">
+        <v>1</v>
+      </c>
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="I14" s="118">
+        <v>7600</v>
+      </c>
+      <c r="I14" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="45">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="K14" s="60">
+        <v>950</v>
+      </c>
+      <c r="K14" s="45">
         <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="25.5">
-      <c r="A15" s="61" t="s">
+        <v>8550</v>
+      </c>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+    </row>
+    <row r="15" spans="1:14" ht="25.5">
+      <c r="A15" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="49">
         <v>20</v>
       </c>
-      <c r="E15" s="65">
-        <v>11000</v>
-      </c>
-      <c r="F15" s="65">
-        <v>100</v>
-      </c>
-      <c r="G15" s="118">
+      <c r="E15" s="50">
+        <v>10450</v>
+      </c>
+      <c r="F15" s="50">
+        <v>95</v>
+      </c>
+      <c r="G15" s="76">
         <v>20</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="45">
         <f t="shared" si="0"/>
-        <v>220000</v>
-      </c>
-      <c r="I15" s="118">
+        <v>209000</v>
+      </c>
+      <c r="I15" s="76">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="45">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="K15" s="60">
+        <v>1900</v>
+      </c>
+      <c r="K15" s="45">
         <f t="shared" si="3"/>
-        <v>222000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="38.25">
-      <c r="A16" s="61">
+        <v>210900</v>
+      </c>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+    </row>
+    <row r="16" spans="1:14" ht="38.25">
+      <c r="A16" s="46">
         <v>4</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="64">
-        <v>1</v>
-      </c>
-      <c r="E16" s="65">
-        <v>55000</v>
-      </c>
-      <c r="F16" s="65">
-        <v>5000</v>
-      </c>
-      <c r="G16" s="118">
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="50">
+        <v>52250</v>
+      </c>
+      <c r="F16" s="50">
+        <v>4750</v>
+      </c>
+      <c r="G16" s="76">
         <v>1.5</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="45">
         <f t="shared" si="0"/>
-        <v>82500</v>
-      </c>
-      <c r="I16" s="118">
+        <v>78375</v>
+      </c>
+      <c r="I16" s="76">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="45">
         <f t="shared" si="2"/>
-        <v>7500</v>
-      </c>
-      <c r="K16" s="60">
+        <v>7125</v>
+      </c>
+      <c r="K16" s="45">
         <f t="shared" si="3"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A17" s="61">
+        <v>85500</v>
+      </c>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+    </row>
+    <row r="17" spans="1:14" ht="42.75" customHeight="1">
+      <c r="A17" s="46">
         <v>5</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="49">
         <v>15</v>
       </c>
-      <c r="E17" s="65">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="65">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="118">
+      <c r="E17" s="50">
+        <v>4750</v>
+      </c>
+      <c r="F17" s="50">
+        <v>950</v>
+      </c>
+      <c r="G17" s="76">
         <v>12.5</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="45">
         <f t="shared" si="0"/>
-        <v>62500</v>
-      </c>
-      <c r="I17" s="118">
+        <v>59375</v>
+      </c>
+      <c r="I17" s="76">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="45">
         <f t="shared" si="2"/>
-        <v>12500</v>
-      </c>
-      <c r="K17" s="60">
+        <v>11875</v>
+      </c>
+      <c r="K17" s="45">
         <f t="shared" si="3"/>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="38.25">
-      <c r="A18" s="61">
+        <v>71250</v>
+      </c>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+    </row>
+    <row r="18" spans="1:14" ht="38.25">
+      <c r="A18" s="46">
         <v>6</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="64">
-        <v>1</v>
-      </c>
-      <c r="E18" s="65">
-        <v>48000</v>
-      </c>
-      <c r="F18" s="65">
-        <v>5000</v>
-      </c>
-      <c r="G18" s="118">
-        <v>1</v>
-      </c>
-      <c r="H18" s="60">
+      <c r="D18" s="49">
+        <v>1</v>
+      </c>
+      <c r="E18" s="50">
+        <v>45600</v>
+      </c>
+      <c r="F18" s="50">
+        <v>4750</v>
+      </c>
+      <c r="G18" s="76">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45">
         <f t="shared" si="0"/>
-        <v>48000</v>
-      </c>
-      <c r="I18" s="118">
+        <v>45600</v>
+      </c>
+      <c r="I18" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="45">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="K18" s="60">
+        <v>4750</v>
+      </c>
+      <c r="K18" s="45">
         <f t="shared" si="3"/>
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="66.75" customHeight="1">
-      <c r="A19" s="61">
+        <v>50350</v>
+      </c>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+    </row>
+    <row r="19" spans="1:14" ht="66.75" customHeight="1">
+      <c r="A19" s="46">
         <v>7</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="64">
-        <v>1</v>
-      </c>
-      <c r="E19" s="65">
-        <v>20000</v>
-      </c>
-      <c r="F19" s="65">
-        <v>20000</v>
-      </c>
-      <c r="G19" s="118">
-        <v>1</v>
-      </c>
-      <c r="H19" s="60">
+      <c r="D19" s="49">
+        <v>1</v>
+      </c>
+      <c r="E19" s="50">
+        <v>19000</v>
+      </c>
+      <c r="F19" s="50">
+        <v>19000</v>
+      </c>
+      <c r="G19" s="76">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45">
         <f>G19*E19</f>
-        <v>20000</v>
-      </c>
-      <c r="I19" s="118">
+        <v>19000</v>
+      </c>
+      <c r="I19" s="76">
         <f>G19</f>
         <v>1</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="45">
         <f>I19*F19</f>
-        <v>20000</v>
-      </c>
-      <c r="K19" s="60">
+        <v>19000</v>
+      </c>
+      <c r="K19" s="45">
         <f>J19+H19</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A20" s="61">
+        <v>38000</v>
+      </c>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+    </row>
+    <row r="20" spans="1:14" ht="71.25" customHeight="1">
+      <c r="A20" s="46">
         <v>8</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="64">
-        <v>1</v>
-      </c>
-      <c r="E20" s="65">
-        <v>10000</v>
-      </c>
-      <c r="F20" s="65">
-        <v>30000</v>
-      </c>
-      <c r="G20" s="118">
-        <v>1</v>
-      </c>
-      <c r="H20" s="60">
+      <c r="D20" s="49">
+        <v>1</v>
+      </c>
+      <c r="E20" s="50">
+        <v>9500</v>
+      </c>
+      <c r="F20" s="50">
+        <v>28500</v>
+      </c>
+      <c r="G20" s="76">
+        <v>1</v>
+      </c>
+      <c r="H20" s="45">
         <f>G20*E20</f>
-        <v>10000</v>
-      </c>
-      <c r="I20" s="118">
+        <v>9500</v>
+      </c>
+      <c r="I20" s="76">
         <f>G20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="45">
         <f>I20*F20</f>
-        <v>30000</v>
-      </c>
-      <c r="K20" s="60">
+        <v>28500</v>
+      </c>
+      <c r="K20" s="45">
         <f>J20+H20</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="75" customHeight="1" thickBot="1">
-      <c r="A21" s="67">
+        <v>38000</v>
+      </c>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+    </row>
+    <row r="21" spans="1:14" ht="75" customHeight="1" thickBot="1">
+      <c r="A21" s="52">
         <v>9</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="70">
-        <v>1</v>
-      </c>
-      <c r="E21" s="71">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="71">
-        <v>20000</v>
-      </c>
-      <c r="G21" s="118">
-        <v>1</v>
-      </c>
-      <c r="H21" s="60">
+      <c r="D21" s="55">
+        <v>1</v>
+      </c>
+      <c r="E21" s="56">
+        <v>19000</v>
+      </c>
+      <c r="F21" s="56">
+        <v>19000</v>
+      </c>
+      <c r="G21" s="76">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45">
         <f>G21*E21</f>
-        <v>20000</v>
-      </c>
-      <c r="I21" s="118">
+        <v>19000</v>
+      </c>
+      <c r="I21" s="76">
         <f>G21</f>
         <v>1</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="45">
         <f>I21*F21</f>
-        <v>20000</v>
-      </c>
-      <c r="K21" s="60">
+        <v>19000</v>
+      </c>
+      <c r="K21" s="45">
         <f>J21+H21</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73" t="s">
+        <v>38000</v>
+      </c>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+    </row>
+    <row r="22" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="79">
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="64">
         <f>SUM(H9:H21)</f>
-        <v>2020560</v>
-      </c>
-      <c r="I22" s="82"/>
-      <c r="J22" s="79">
+        <v>1919532</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="64">
         <f>SUM(J9:J21)</f>
-        <v>389080</v>
-      </c>
-      <c r="K22" s="79">
+        <v>369626</v>
+      </c>
+      <c r="K22" s="64">
         <f>SUM(K9:K21)</f>
-        <v>2409640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A23" s="115" t="s">
+        <v>2289158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="44.25" customHeight="1">
+      <c r="A23" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2677,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2698,816 +2712,850 @@
     <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A4" s="34" t="s">
+    <row r="3" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:14" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="83" customFormat="1" ht="18.75">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:14" s="68" customFormat="1" ht="18.75">
+      <c r="A6" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="106" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-    </row>
-    <row r="7" spans="1:11" s="83" customFormat="1" ht="15.75">
-      <c r="A7" s="95"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="109" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+    </row>
+    <row r="7" spans="1:14" s="68" customFormat="1" ht="15.75">
+      <c r="A7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113" t="s">
+      <c r="J7" s="115"/>
+      <c r="K7" s="116" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="83" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="84" t="s">
+    <row r="8" spans="1:14" s="68" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="99"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="114"/>
-    </row>
-    <row r="9" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33" t="s">
+      <c r="K8" s="117"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="56.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="56.25">
+      <c r="A10" s="27">
+        <v>1</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="80">
         <v>125</v>
       </c>
-      <c r="E11" s="29">
-        <v>2850</v>
-      </c>
-      <c r="F11" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="119">
+      <c r="E11" s="82">
+        <v>2707.5</v>
+      </c>
+      <c r="F11" s="82">
+        <v>950</v>
+      </c>
+      <c r="G11" s="77">
         <v>166.5</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="45">
         <f t="shared" ref="H11:H26" si="0">G11*E11</f>
-        <v>474525</v>
-      </c>
-      <c r="I11" s="119">
+        <v>450798.75</v>
+      </c>
+      <c r="I11" s="77">
         <f t="shared" ref="I11:I26" si="1">G11</f>
         <v>166.5</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="45">
         <f t="shared" ref="J11:J26" si="2">I11*F11</f>
-        <v>166500</v>
-      </c>
-      <c r="K11" s="60">
+        <v>158175</v>
+      </c>
+      <c r="K11" s="45">
         <f t="shared" ref="K11:K26" si="3">J11+H11</f>
-        <v>641025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A12" s="6" t="s">
+        <v>608973.75</v>
+      </c>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A12" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="86">
         <v>95</v>
       </c>
-      <c r="E12" s="29">
-        <v>3560</v>
-      </c>
-      <c r="F12" s="29">
-        <v>1200</v>
-      </c>
-      <c r="G12" s="119">
+      <c r="E12" s="82">
+        <v>3382</v>
+      </c>
+      <c r="F12" s="82">
+        <v>1140</v>
+      </c>
+      <c r="G12" s="77">
         <v>36.448999999999998</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="45">
         <f t="shared" si="0"/>
-        <v>129758.43999999999</v>
-      </c>
-      <c r="I12" s="119">
+        <v>123270.518</v>
+      </c>
+      <c r="I12" s="77">
         <f t="shared" si="1"/>
         <v>36.448999999999998</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="45">
         <f t="shared" si="2"/>
-        <v>43738.799999999996</v>
-      </c>
-      <c r="K12" s="60">
+        <v>41551.86</v>
+      </c>
+      <c r="K12" s="45">
         <f t="shared" si="3"/>
-        <v>173497.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A13" s="6" t="s">
+        <v>164822.378</v>
+      </c>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A13" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="86">
         <v>15</v>
       </c>
-      <c r="E13" s="29">
-        <v>4250</v>
-      </c>
-      <c r="F13" s="29">
-        <v>1300</v>
-      </c>
-      <c r="G13" s="119">
+      <c r="E13" s="82">
+        <v>4037.5</v>
+      </c>
+      <c r="F13" s="82">
+        <v>1235</v>
+      </c>
+      <c r="G13" s="77">
         <v>3.67</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="45">
         <f t="shared" si="0"/>
-        <v>15597.5</v>
-      </c>
-      <c r="I13" s="119">
+        <v>14817.625</v>
+      </c>
+      <c r="I13" s="77">
         <f t="shared" si="1"/>
         <v>3.67</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="45">
         <f t="shared" si="2"/>
-        <v>4771</v>
-      </c>
-      <c r="K13" s="60">
+        <v>4532.45</v>
+      </c>
+      <c r="K13" s="45">
         <f t="shared" si="3"/>
-        <v>20368.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A14" s="6" t="s">
+        <v>19350.075000000001</v>
+      </c>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A14" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="86">
         <v>20</v>
       </c>
-      <c r="E14" s="29">
-        <v>5560</v>
-      </c>
-      <c r="F14" s="29">
-        <v>1400</v>
-      </c>
-      <c r="G14" s="119">
+      <c r="E14" s="82">
+        <v>5282</v>
+      </c>
+      <c r="F14" s="82">
+        <v>1330</v>
+      </c>
+      <c r="G14" s="77">
         <v>9.1300000000000008</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
-        <v>50762.8</v>
-      </c>
-      <c r="I14" s="119">
+        <v>48224.66</v>
+      </c>
+      <c r="I14" s="77">
         <f t="shared" si="1"/>
         <v>9.1300000000000008</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="45">
         <f t="shared" si="2"/>
-        <v>12782.000000000002</v>
-      </c>
-      <c r="K14" s="60">
+        <v>12142.900000000001</v>
+      </c>
+      <c r="K14" s="45">
         <f t="shared" si="3"/>
-        <v>63544.800000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A15" s="6" t="s">
+        <v>60367.560000000005</v>
+      </c>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A15" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="86">
         <v>20</v>
       </c>
-      <c r="E15" s="29">
-        <v>9450</v>
-      </c>
-      <c r="F15" s="29">
-        <v>1500</v>
-      </c>
-      <c r="G15" s="119">
+      <c r="E15" s="82">
+        <v>8977.5</v>
+      </c>
+      <c r="F15" s="82">
+        <v>1425</v>
+      </c>
+      <c r="G15" s="77">
         <v>5.85</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="45">
         <f t="shared" si="0"/>
-        <v>55282.5</v>
-      </c>
-      <c r="I15" s="119">
+        <v>52518.375</v>
+      </c>
+      <c r="I15" s="77">
         <f t="shared" si="1"/>
         <v>5.85</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="45">
         <f t="shared" si="2"/>
-        <v>8775</v>
-      </c>
-      <c r="K15" s="60">
+        <v>8336.25</v>
+      </c>
+      <c r="K15" s="45">
         <f t="shared" si="3"/>
-        <v>64057.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A16" s="6" t="s">
+        <v>60854.625</v>
+      </c>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A16" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="86">
         <v>90</v>
       </c>
-      <c r="E16" s="29">
-        <v>11200</v>
-      </c>
-      <c r="F16" s="29">
-        <v>1700</v>
-      </c>
-      <c r="G16" s="119">
+      <c r="E16" s="82">
+        <v>10640</v>
+      </c>
+      <c r="F16" s="82">
+        <v>1615</v>
+      </c>
+      <c r="G16" s="77">
         <v>15.68</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="45">
         <f t="shared" si="0"/>
-        <v>175616</v>
-      </c>
-      <c r="I16" s="119">
+        <v>166835.19999999998</v>
+      </c>
+      <c r="I16" s="77">
         <f t="shared" si="1"/>
         <v>15.68</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="45">
         <f t="shared" si="2"/>
-        <v>26656</v>
-      </c>
-      <c r="K16" s="60">
+        <v>25323.200000000001</v>
+      </c>
+      <c r="K16" s="45">
         <f t="shared" si="3"/>
-        <v>202272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A17" s="6" t="s">
+        <v>192158.4</v>
+      </c>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A17" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="86">
         <v>20</v>
       </c>
-      <c r="E17" s="29">
-        <v>16222</v>
-      </c>
-      <c r="F17" s="29">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="119">
+      <c r="E17" s="82">
+        <v>15410.9</v>
+      </c>
+      <c r="F17" s="82">
+        <v>1900</v>
+      </c>
+      <c r="G17" s="77">
         <v>18.34</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="45">
         <f t="shared" si="0"/>
-        <v>297511.48</v>
-      </c>
-      <c r="I17" s="119">
+        <v>282635.90600000002</v>
+      </c>
+      <c r="I17" s="77">
         <f t="shared" si="1"/>
         <v>18.34</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="45">
         <f t="shared" si="2"/>
-        <v>36680</v>
-      </c>
-      <c r="K17" s="60">
+        <v>34846</v>
+      </c>
+      <c r="K17" s="45">
         <f t="shared" si="3"/>
-        <v>334191.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
+        <v>317481.90600000002</v>
+      </c>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="86">
         <v>56</v>
       </c>
-      <c r="E18" s="29">
-        <v>4500</v>
-      </c>
-      <c r="F18" s="29">
-        <v>750</v>
-      </c>
-      <c r="G18" s="119">
+      <c r="E18" s="82">
+        <v>4275</v>
+      </c>
+      <c r="F18" s="82">
+        <v>712.5</v>
+      </c>
+      <c r="G18" s="77">
         <v>51</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="45">
         <f t="shared" si="0"/>
-        <v>229500</v>
-      </c>
-      <c r="I18" s="119">
+        <v>218025</v>
+      </c>
+      <c r="I18" s="77">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="45">
         <f t="shared" si="2"/>
-        <v>38250</v>
-      </c>
-      <c r="K18" s="60">
+        <v>36337.5</v>
+      </c>
+      <c r="K18" s="45">
         <f t="shared" si="3"/>
-        <v>267750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="22.5">
-      <c r="A19" s="6" t="s">
+        <v>254362.5</v>
+      </c>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="33" customHeight="1">
+      <c r="A19" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="86">
         <v>51</v>
       </c>
-      <c r="E19" s="29">
-        <v>8900</v>
-      </c>
-      <c r="F19" s="29">
-        <v>800</v>
-      </c>
-      <c r="G19" s="119">
+      <c r="E19" s="82">
+        <v>8455</v>
+      </c>
+      <c r="F19" s="82">
+        <v>760</v>
+      </c>
+      <c r="G19" s="77">
         <v>47</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="45">
         <f t="shared" si="0"/>
-        <v>418300</v>
-      </c>
-      <c r="I19" s="119">
+        <v>397385</v>
+      </c>
+      <c r="I19" s="77">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="45">
         <f t="shared" si="2"/>
-        <v>37600</v>
-      </c>
-      <c r="K19" s="60">
+        <v>35720</v>
+      </c>
+      <c r="K19" s="45">
         <f t="shared" si="3"/>
-        <v>455900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A20" s="6" t="s">
+        <v>433105</v>
+      </c>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A20" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="86">
         <v>2</v>
       </c>
-      <c r="E20" s="29">
-        <v>127000</v>
-      </c>
-      <c r="F20" s="29">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="119">
-        <v>2</v>
-      </c>
-      <c r="H20" s="60">
-        <f t="shared" si="0"/>
-        <v>254000</v>
-      </c>
-      <c r="I20" s="119">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="60">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="K20" s="60">
-        <f t="shared" si="3"/>
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="25.5">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="E20" s="82">
+        <v>120650</v>
+      </c>
+      <c r="F20" s="82">
+        <v>4750</v>
+      </c>
+      <c r="G20" s="77">
         <v>0</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="31">
-        <v>1</v>
-      </c>
-      <c r="E21" s="29">
-        <v>29000</v>
-      </c>
-      <c r="F21" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G21" s="119">
-        <v>1</v>
-      </c>
-      <c r="H21" s="60">
-        <f t="shared" si="0"/>
-        <v>29000</v>
-      </c>
-      <c r="I21" s="119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="60">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="K21" s="60">
-        <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
-        <v>17500</v>
-      </c>
-      <c r="F22" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="119">
-        <v>1</v>
-      </c>
-      <c r="H22" s="60">
-        <f t="shared" si="0"/>
-        <v>17500</v>
-      </c>
-      <c r="I22" s="119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="60">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="K22" s="60">
-        <f t="shared" si="3"/>
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="22.5">
-      <c r="A23" s="6">
-        <v>5</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="31">
-        <v>1</v>
-      </c>
-      <c r="E23" s="29">
-        <v>10000</v>
-      </c>
-      <c r="F23" s="29">
-        <v>15000</v>
-      </c>
-      <c r="G23" s="119">
-        <v>1</v>
-      </c>
-      <c r="H23" s="60">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="I23" s="119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="60">
-        <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="K23" s="60">
-        <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6">
-        <v>6</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1</v>
-      </c>
-      <c r="E24" s="29">
-        <v>40000</v>
-      </c>
-      <c r="F24" s="29">
-        <v>40000</v>
-      </c>
-      <c r="G24" s="119">
-        <v>1</v>
-      </c>
-      <c r="H24" s="60">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="I24" s="119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="60">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="K24" s="60">
-        <f t="shared" si="3"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="6">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="31">
-        <v>1</v>
-      </c>
-      <c r="E25" s="29">
-        <v>15000</v>
-      </c>
-      <c r="F25" s="29">
-        <v>30000</v>
-      </c>
-      <c r="G25" s="119">
-        <v>1</v>
-      </c>
-      <c r="H25" s="60">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="I25" s="119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="60">
-        <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="K25" s="60">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="23.25" thickBot="1">
-      <c r="A26" s="28">
-        <v>8</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="42">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29">
-        <v>30000</v>
-      </c>
-      <c r="G26" s="119">
-        <v>1</v>
-      </c>
-      <c r="H26" s="60">
+      <c r="H20" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="119">
+      <c r="I20" s="77">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="60">
+        <v>0</v>
+      </c>
+      <c r="J20" s="45">
         <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="K26" s="60">
+        <v>0</v>
+      </c>
+      <c r="K20" s="45">
         <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+    </row>
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A21" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="86">
+        <v>1</v>
+      </c>
+      <c r="E21" s="82">
+        <v>27550</v>
+      </c>
+      <c r="F21" s="82">
+        <v>950</v>
+      </c>
+      <c r="G21" s="77">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45">
+        <f t="shared" si="0"/>
+        <v>27550</v>
+      </c>
+      <c r="I21" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="45">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="K21" s="45">
+        <f t="shared" si="3"/>
+        <v>28500</v>
+      </c>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+    </row>
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="86">
+        <v>1</v>
+      </c>
+      <c r="E22" s="82">
+        <v>16625</v>
+      </c>
+      <c r="F22" s="82">
+        <v>950</v>
+      </c>
+      <c r="G22" s="77">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45">
+        <f t="shared" si="0"/>
+        <v>16625</v>
+      </c>
+      <c r="I22" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="45">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="K22" s="45">
+        <f t="shared" si="3"/>
+        <v>17575</v>
+      </c>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+    </row>
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A23" s="83">
+        <v>5</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="86">
+        <v>1</v>
+      </c>
+      <c r="E23" s="82">
+        <v>9500</v>
+      </c>
+      <c r="F23" s="82">
+        <v>14250</v>
+      </c>
+      <c r="G23" s="77">
+        <v>1</v>
+      </c>
+      <c r="H23" s="45">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+      <c r="I23" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="45">
+        <f t="shared" si="2"/>
+        <v>14250</v>
+      </c>
+      <c r="K23" s="45">
+        <f t="shared" si="3"/>
+        <v>23750</v>
+      </c>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+    </row>
+    <row r="24" spans="1:14" s="2" customFormat="1">
+      <c r="A24" s="83">
+        <v>6</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="86">
+        <v>1</v>
+      </c>
+      <c r="E24" s="82">
+        <v>38000</v>
+      </c>
+      <c r="F24" s="82">
+        <v>38000</v>
+      </c>
+      <c r="G24" s="77">
+        <v>1</v>
+      </c>
+      <c r="H24" s="45">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+      <c r="I24" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="45">
+        <f t="shared" si="2"/>
+        <v>38000</v>
+      </c>
+      <c r="K24" s="45">
+        <f t="shared" si="3"/>
+        <v>76000</v>
+      </c>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="83">
+        <v>7</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="86">
+        <v>1</v>
+      </c>
+      <c r="E25" s="82">
+        <v>14250</v>
+      </c>
+      <c r="F25" s="82">
+        <v>28500</v>
+      </c>
+      <c r="G25" s="77">
+        <v>1</v>
+      </c>
+      <c r="H25" s="45">
+        <f t="shared" si="0"/>
+        <v>14250</v>
+      </c>
+      <c r="I25" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="45">
+        <f t="shared" si="2"/>
+        <v>28500</v>
+      </c>
+      <c r="K25" s="45">
+        <f t="shared" si="3"/>
+        <v>42750</v>
+      </c>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A26" s="88">
+        <v>8</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="91">
+        <v>1</v>
+      </c>
+      <c r="E26" s="82">
+        <v>0</v>
+      </c>
+      <c r="F26" s="82">
+        <v>28500</v>
+      </c>
+      <c r="G26" s="77">
+        <v>1</v>
+      </c>
+      <c r="H26" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="45">
+        <f t="shared" si="2"/>
+        <v>28500</v>
+      </c>
+      <c r="K26" s="45">
+        <f t="shared" si="3"/>
+        <v>28500</v>
+      </c>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66">
         <f>SUM(H10:H26)</f>
-        <v>2212353.7199999997</v>
-      </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81">
+        <v>1860436.034</v>
+      </c>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66">
         <f>SUM(J10:J26)</f>
-        <v>502752.8</v>
-      </c>
-      <c r="K27" s="81">
+        <v>468115.16000000003</v>
+      </c>
+      <c r="K27" s="66">
         <f>SUM(K10:K26)</f>
-        <v>2715106.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>2328551.1940000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A30" s="117" t="s">
+    <row r="30" spans="1:14" ht="29.25" customHeight="1">
+      <c r="A30" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-    </row>
-    <row r="31" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A31" s="117" t="s">
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+    </row>
+    <row r="31" spans="1:14" ht="29.25" customHeight="1">
+      <c r="A31" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="9">
